--- a/Original Spreadsheets/DIGGSGeophysicsTestPropertyDefinitions.xlsx
+++ b/Original Spreadsheets/DIGGSGeophysicsTestPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Original Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A4A71-76CF-6A48-9E9D-8612214994C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E0FFC-C60C-4C48-ABA9-4AF5BDF1024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22760" yWindow="4480" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61440" yWindow="12740" windowWidth="35840" windowHeight="20780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1358,9 +1358,6 @@
     <t>The  two-way time required for a sesimic wave to travel from the source to the borehole wall</t>
   </si>
   <si>
-    <t>//diggs:ResultSet/diggs:parameters/diggs:PropertyParameters/diggs:properties/diggs:Property/diggs:propertyClass</t>
-  </si>
-  <si>
     <t>//diggs:ProcessedGeophysicalSurvey/diggs:geophysicalMethod[text()="seismic reflection"]</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>DIGGS Geophysics Properties</t>
+  </si>
+  <si>
+    <t>//diggs:PropertyClass</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2088,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2135,7 +2135,7 @@
         <v>232</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>233</v>
@@ -2156,7 +2156,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2984,7 +2984,7 @@
         <v>331</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>332</v>
@@ -3224,7 +3224,7 @@
         <v>360</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>361</v>
@@ -3883,9 +3883,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3919,10 +3919,10 @@
         <v>234</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" t="s">
         <v>440</v>
-      </c>
-      <c r="D2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3934,10 +3934,10 @@
         <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,10 +3949,10 @@
         <v>237</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,10 +3964,10 @@
         <v>240</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3979,10 +3979,10 @@
         <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3994,10 +3994,10 @@
         <v>243</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,10 +4009,10 @@
         <v>243</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" t="s">
         <v>440</v>
-      </c>
-      <c r="D8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4024,10 +4024,10 @@
         <v>243</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,10 +4039,10 @@
         <v>243</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,10 +4054,10 @@
         <v>246</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,10 +4069,10 @@
         <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,10 +4084,10 @@
         <v>249</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" t="s">
         <v>440</v>
-      </c>
-      <c r="D13" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,10 +4099,10 @@
         <v>249</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>249</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,10 +4129,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4144,10 +4144,10 @@
         <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4159,10 +4159,10 @@
         <v>257</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,10 +4174,10 @@
         <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4189,10 +4189,10 @@
         <v>257</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4204,10 +4204,10 @@
         <v>257</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4219,10 +4219,10 @@
         <v>260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>263</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,10 +4249,10 @@
         <v>266</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,10 +4264,10 @@
         <v>266</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
         <v>269</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,10 +4294,10 @@
         <v>269</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,10 +4309,10 @@
         <v>272</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4324,10 +4324,10 @@
         <v>348</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,10 +4339,10 @@
         <v>348</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4354,10 +4354,10 @@
         <v>345</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4369,10 +4369,10 @@
         <v>275</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,10 +4384,10 @@
         <v>279</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4399,10 +4399,10 @@
         <v>282</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4414,10 +4414,10 @@
         <v>286</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4429,10 +4429,10 @@
         <v>289</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4444,10 +4444,10 @@
         <v>292</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,10 +4459,10 @@
         <v>295</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,10 +4474,10 @@
         <v>295</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,10 +4489,10 @@
         <v>298</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,10 +4504,10 @@
         <v>298</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4519,10 +4519,10 @@
         <v>351</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4534,10 +4534,10 @@
         <v>301</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,10 +4549,10 @@
         <v>304</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4564,10 +4564,10 @@
         <v>307</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4579,10 +4579,10 @@
         <v>310</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4594,10 +4594,10 @@
         <v>313</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4609,10 +4609,10 @@
         <v>313</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4624,10 +4624,10 @@
         <v>316</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,10 +4639,10 @@
         <v>316</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>319</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,10 +4669,10 @@
         <v>319</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,10 +4684,10 @@
         <v>322</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4699,10 +4699,10 @@
         <v>322</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,10 +4714,10 @@
         <v>354</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,10 +4729,10 @@
         <v>325</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,10 +4744,10 @@
         <v>325</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,10 +4759,10 @@
         <v>325</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D58" t="s">
         <v>440</v>
-      </c>
-      <c r="D58" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,10 +4774,10 @@
         <v>325</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4789,10 +4789,10 @@
         <v>328</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4804,10 +4804,10 @@
         <v>328</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4819,10 +4819,10 @@
         <v>328</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D62" t="s">
         <v>440</v>
-      </c>
-      <c r="D62" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4834,10 +4834,10 @@
         <v>328</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4849,10 +4849,10 @@
         <v>331</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D64" t="s">
         <v>440</v>
-      </c>
-      <c r="D64" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,10 +4864,10 @@
         <v>331</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,10 +4879,10 @@
         <v>357</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,10 +4894,10 @@
         <v>333</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,10 +4909,10 @@
         <v>336</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4924,10 +4924,10 @@
         <v>339</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4939,10 +4939,10 @@
         <v>339</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,10 +4954,10 @@
         <v>339</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" t="s">
         <v>440</v>
-      </c>
-      <c r="D71" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,10 +4969,10 @@
         <v>339</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4984,10 +4984,10 @@
         <v>339</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4999,10 +4999,10 @@
         <v>342</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5014,10 +5014,10 @@
         <v>342</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5029,10 +5029,10 @@
         <v>342</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" t="s">
         <v>440</v>
-      </c>
-      <c r="D76" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5044,10 +5044,10 @@
         <v>342</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5059,10 +5059,10 @@
         <v>342</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D78" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5074,10 +5074,10 @@
         <v>362</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5089,10 +5089,10 @@
         <v>365</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,10 +5104,10 @@
         <v>368</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
         <v>360</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5134,10 +5134,10 @@
         <v>371</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D83" t="s">
         <v>440</v>
-      </c>
-      <c r="D83" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5149,10 +5149,10 @@
         <v>374</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,10 +5164,10 @@
         <v>377</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,10 +5179,10 @@
         <v>377</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5194,10 +5194,10 @@
         <v>377</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,10 +5209,10 @@
         <v>377</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5224,10 +5224,10 @@
         <v>377</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>380</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5254,10 +5254,10 @@
         <v>380</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5269,10 +5269,10 @@
         <v>380</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5284,10 +5284,10 @@
         <v>380</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,10 +5299,10 @@
         <v>380</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5314,10 +5314,10 @@
         <v>383</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5329,10 +5329,10 @@
         <v>386</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,10 +5344,10 @@
         <v>386</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5359,10 +5359,10 @@
         <v>386</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" t="s">
         <v>440</v>
-      </c>
-      <c r="D98" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5374,10 +5374,10 @@
         <v>386</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,10 +5389,10 @@
         <v>386</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5404,10 +5404,10 @@
         <v>389</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D101" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,10 +5419,10 @@
         <v>392</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5434,10 +5434,10 @@
         <v>395</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5449,10 +5449,10 @@
         <v>398</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D104" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5464,10 +5464,10 @@
         <v>401</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5479,10 +5479,10 @@
         <v>404</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D106" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5494,10 +5494,10 @@
         <v>407</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,10 +5509,10 @@
         <v>410</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5524,10 +5524,10 @@
         <v>413</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5539,10 +5539,10 @@
         <v>416</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5554,10 +5554,10 @@
         <v>419</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5569,10 +5569,10 @@
         <v>422</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5584,10 +5584,10 @@
         <v>425</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,10 +5599,10 @@
         <v>428</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5614,10 +5614,10 @@
         <v>431</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5629,10 +5629,10 @@
         <v>434</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5644,10 +5644,10 @@
         <v>437</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D117" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
